--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Pathalia Khal/data_agg_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Pathalia Khal/data_agg_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="51">
   <si>
     <t>Section No</t>
   </si>
@@ -97,6 +97,9 @@
     <t>CPK21</t>
   </si>
   <si>
+    <t>CPK22</t>
+  </si>
+  <si>
     <t>CPK23</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>Open land</t>
+  </si>
+  <si>
+    <t>Fisheries</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +558,13 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1.809</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -569,11 +578,10 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>1.803</v>
-      </c>
-      <c r="F3">
-        <f>(B5+B6)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -587,14 +595,13 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>1.798</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <f>(B6+B7)/2</f>
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -608,11 +615,10 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>0.833</v>
-      </c>
-      <c r="F5">
-        <f>(B7+B8)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,11 +632,10 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
         <v>0.02</v>
-      </c>
-      <c r="F6">
-        <f>(B8+B9)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -644,11 +649,10 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>-0.398</v>
-      </c>
-      <c r="F7">
-        <f>(B9+B10)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -662,14 +666,13 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
         <v>-0.497</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <f>(B10+B11)/2</f>
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -683,11 +686,10 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
         <v>-0.396</v>
-      </c>
-      <c r="F9">
-        <f>(B11+B12)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -701,11 +703,10 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
         <v>-0.012</v>
-      </c>
-      <c r="F10">
-        <f>(B12+B13)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -719,11 +720,10 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>0.639</v>
-      </c>
-      <c r="F11">
-        <f>(B13+B14)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -737,14 +737,13 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
         <v>1.489</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <f>(B14+B15)/2</f>
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -758,11 +757,10 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
         <v>1.503</v>
-      </c>
-      <c r="F13">
-        <f>(B15+B16)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -776,14 +774,13 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
         <v>1.51</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <f>(B16+B17)/2</f>
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -797,10 +794,13 @@
         <v>100</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>2.911</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
+      <c r="F15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -814,14 +814,13 @@
         <v>100</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>2.906</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16">
-        <f>(B22+B23)/2</f>
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -835,11 +834,10 @@
         <v>100</v>
       </c>
       <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
         <v>1.725</v>
-      </c>
-      <c r="F17">
-        <f>(B23+B24)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -853,11 +851,10 @@
         <v>100</v>
       </c>
       <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>0.652</v>
-      </c>
-      <c r="F18">
-        <f>(B24+B25)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -871,11 +868,10 @@
         <v>100</v>
       </c>
       <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
         <v>-0.04</v>
-      </c>
-      <c r="F19">
-        <f>(B25+B26)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -889,14 +885,13 @@
         <v>100</v>
       </c>
       <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
         <v>-0.139</v>
       </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <f>(B26+B27)/2</f>
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -910,11 +905,10 @@
         <v>100</v>
       </c>
       <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
         <v>-0.038</v>
-      </c>
-      <c r="F21">
-        <f>(B27+B28)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -928,11 +922,10 @@
         <v>100</v>
       </c>
       <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
         <v>0.651</v>
-      </c>
-      <c r="F22">
-        <f>(B28+B29)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -946,11 +939,10 @@
         <v>100</v>
       </c>
       <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
         <v>1.658</v>
-      </c>
-      <c r="F23">
-        <f>(B29+B30)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -964,14 +956,13 @@
         <v>100</v>
       </c>
       <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
         <v>3.139</v>
       </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24">
-        <f>(B30+B31)/2</f>
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -985,11 +976,10 @@
         <v>100</v>
       </c>
       <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
         <v>3.152</v>
-      </c>
-      <c r="F25">
-        <f>(B31+B32)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1003,14 +993,13 @@
         <v>100</v>
       </c>
       <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
         <v>3.16</v>
       </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
-        <f>(B32+B33)/2</f>
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1024,10 +1013,13 @@
         <v>200</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>3.47</v>
       </c>
-      <c r="E27" t="s">
-        <v>36</v>
+      <c r="F27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1041,14 +1033,13 @@
         <v>200</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>3.455</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28">
-        <f>(B37+B38)/2</f>
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1062,14 +1053,13 @@
         <v>200</v>
       </c>
       <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
         <v>3.5</v>
       </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29">
-        <f>(B38+B39)/2</f>
-        <v>0</v>
+      <c r="F29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1083,11 +1073,10 @@
         <v>200</v>
       </c>
       <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
         <v>1.986</v>
-      </c>
-      <c r="F30">
-        <f>(B39+B40)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1101,11 +1090,10 @@
         <v>200</v>
       </c>
       <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
         <v>0.577</v>
-      </c>
-      <c r="F31">
-        <f>(B40+B41)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1119,11 +1107,10 @@
         <v>200</v>
       </c>
       <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
         <v>-0.457</v>
-      </c>
-      <c r="F32">
-        <f>(B41+B42)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1137,14 +1124,13 @@
         <v>200</v>
       </c>
       <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33">
-        <f>(B42+B43)/2</f>
-        <v>0</v>
+      <c r="F33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1158,11 +1144,10 @@
         <v>200</v>
       </c>
       <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
         <v>-0.459</v>
-      </c>
-      <c r="F34">
-        <f>(B43+B44)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1176,11 +1161,10 @@
         <v>200</v>
       </c>
       <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
         <v>0.387</v>
-      </c>
-      <c r="F35">
-        <f>(B44+B45)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1194,11 +1178,10 @@
         <v>200</v>
       </c>
       <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
         <v>1.679</v>
-      </c>
-      <c r="F36">
-        <f>(B45+B46)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1212,14 +1195,13 @@
         <v>200</v>
       </c>
       <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
         <v>3.279</v>
       </c>
-      <c r="E37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37">
-        <f>(B46+B47)/2</f>
-        <v>0</v>
+      <c r="F37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1233,14 +1215,13 @@
         <v>200</v>
       </c>
       <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
         <v>3.293</v>
       </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38">
-        <f>(B47+B48)/2</f>
-        <v>0</v>
+      <c r="F38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1254,10 +1235,13 @@
         <v>300</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>0.897</v>
       </c>
-      <c r="E39" t="s">
-        <v>38</v>
+      <c r="F39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1271,11 +1255,10 @@
         <v>300</v>
       </c>
       <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>1.79</v>
-      </c>
-      <c r="F40">
-        <f>(B52+B53)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1289,11 +1272,10 @@
         <v>300</v>
       </c>
       <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
         <v>3.096</v>
-      </c>
-      <c r="F41">
-        <f>(B53+B54)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1307,14 +1289,13 @@
         <v>300</v>
       </c>
       <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
         <v>3.302</v>
       </c>
-      <c r="E42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42">
-        <f>(B54+B55)/2</f>
-        <v>0</v>
+      <c r="F42" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1328,14 +1309,13 @@
         <v>300</v>
       </c>
       <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
         <v>3.196</v>
       </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43">
-        <f>(B55+B56)/2</f>
-        <v>0</v>
+      <c r="F43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1349,11 +1329,10 @@
         <v>300</v>
       </c>
       <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
         <v>1.668</v>
-      </c>
-      <c r="F44">
-        <f>(B56+B57)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1367,11 +1346,10 @@
         <v>300</v>
       </c>
       <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45">
         <v>0.65</v>
-      </c>
-      <c r="F45">
-        <f>(B57+B58)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1385,11 +1363,10 @@
         <v>300</v>
       </c>
       <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
         <v>0.092</v>
-      </c>
-      <c r="F46">
-        <f>(B58+B59)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1403,14 +1380,13 @@
         <v>300</v>
       </c>
       <c r="D47">
+        <v>14.5</v>
+      </c>
+      <c r="E47">
         <v>-0.01</v>
       </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47">
-        <f>(B59+B60)/2</f>
-        <v>0</v>
+      <c r="F47" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1424,11 +1400,10 @@
         <v>300</v>
       </c>
       <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
         <v>0.091</v>
-      </c>
-      <c r="F48">
-        <f>(B60+B61)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1442,11 +1417,10 @@
         <v>300</v>
       </c>
       <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49">
         <v>0.681</v>
-      </c>
-      <c r="F49">
-        <f>(B61+B62)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1460,11 +1434,10 @@
         <v>300</v>
       </c>
       <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
         <v>1.695</v>
-      </c>
-      <c r="F50">
-        <f>(B62+B63)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1478,14 +1451,13 @@
         <v>300</v>
       </c>
       <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
         <v>2.991</v>
       </c>
-      <c r="E51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51">
-        <f>(B63+B64)/2</f>
-        <v>0</v>
+      <c r="F51" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1499,14 +1471,13 @@
         <v>300</v>
       </c>
       <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52">
         <v>2.997</v>
       </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52">
-        <f>(B64+B65)/2</f>
-        <v>0</v>
+      <c r="F52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1520,11 +1491,10 @@
         <v>300</v>
       </c>
       <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
         <v>2.997</v>
-      </c>
-      <c r="F53">
-        <f>(B65+B66)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1538,10 +1508,13 @@
         <v>400</v>
       </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>2.935</v>
       </c>
-      <c r="E54" t="s">
-        <v>35</v>
+      <c r="F54" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1555,11 +1528,10 @@
         <v>400</v>
       </c>
       <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
         <v>2.966</v>
-      </c>
-      <c r="F55">
-        <f>(B73+B74)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1573,14 +1545,13 @@
         <v>400</v>
       </c>
       <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
         <v>2.959</v>
       </c>
-      <c r="E56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56">
-        <f>(B74+B75)/2</f>
-        <v>0</v>
+      <c r="F56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1594,11 +1565,10 @@
         <v>400</v>
       </c>
       <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
         <v>1.436</v>
-      </c>
-      <c r="F57">
-        <f>(B75+B76)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1612,11 +1582,10 @@
         <v>400</v>
       </c>
       <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
         <v>0.397</v>
-      </c>
-      <c r="F58">
-        <f>(B76+B77)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1630,11 +1599,10 @@
         <v>400</v>
       </c>
       <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59">
         <v>-0.022</v>
-      </c>
-      <c r="F59">
-        <f>(B77+B78)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1648,14 +1616,13 @@
         <v>400</v>
       </c>
       <c r="D60">
+        <v>16.5</v>
+      </c>
+      <c r="E60">
         <v>-0.121</v>
       </c>
-      <c r="E60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60">
-        <f>(B78+B79)/2</f>
-        <v>0</v>
+      <c r="F60" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1669,11 +1636,10 @@
         <v>400</v>
       </c>
       <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
         <v>-0.02</v>
-      </c>
-      <c r="F61">
-        <f>(B79+B80)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1687,11 +1653,10 @@
         <v>400</v>
       </c>
       <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
         <v>0.383</v>
-      </c>
-      <c r="F62">
-        <f>(B80+B81)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1705,11 +1670,10 @@
         <v>400</v>
       </c>
       <c r="D63">
+        <v>22</v>
+      </c>
+      <c r="E63">
         <v>1.379</v>
-      </c>
-      <c r="F63">
-        <f>(B81+B82)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1723,14 +1687,13 @@
         <v>400</v>
       </c>
       <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64">
         <v>2.833</v>
       </c>
-      <c r="E64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64">
-        <f>(B82+B83)/2</f>
-        <v>0</v>
+      <c r="F64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1744,14 +1707,13 @@
         <v>400</v>
       </c>
       <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
         <v>2.838</v>
       </c>
-      <c r="E65" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65">
-        <f>(B83+B84)/2</f>
-        <v>0</v>
+      <c r="F65" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1765,10 +1727,13 @@
         <v>500</v>
       </c>
       <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>3.764</v>
       </c>
-      <c r="E66" t="s">
-        <v>39</v>
+      <c r="F66" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1782,14 +1747,13 @@
         <v>500</v>
       </c>
       <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
         <v>3.759</v>
       </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67">
-        <f>(B89+B90)/2</f>
-        <v>0</v>
+      <c r="F67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1803,11 +1767,10 @@
         <v>500</v>
       </c>
       <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
         <v>1.978</v>
-      </c>
-      <c r="F68">
-        <f>(B90+B91)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1821,11 +1784,10 @@
         <v>500</v>
       </c>
       <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
         <v>0.76</v>
-      </c>
-      <c r="F69">
-        <f>(B91+B92)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1839,11 +1801,10 @@
         <v>500</v>
       </c>
       <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
         <v>0.045</v>
-      </c>
-      <c r="F70">
-        <f>(B92+B93)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1857,14 +1818,13 @@
         <v>500</v>
       </c>
       <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
         <v>-0.052</v>
       </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71">
-        <f>(B93+B94)/2</f>
-        <v>0</v>
+      <c r="F71" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1878,11 +1838,10 @@
         <v>500</v>
       </c>
       <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
         <v>0.049</v>
-      </c>
-      <c r="F72">
-        <f>(B94+B95)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1896,11 +1855,10 @@
         <v>500</v>
       </c>
       <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
         <v>0.5629999999999999</v>
-      </c>
-      <c r="F73">
-        <f>(B95+B96)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1914,11 +1872,10 @@
         <v>500</v>
       </c>
       <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
         <v>1.93</v>
-      </c>
-      <c r="F74">
-        <f>(B96+B97)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1932,14 +1889,13 @@
         <v>500</v>
       </c>
       <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
         <v>3.104</v>
       </c>
-      <c r="E75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75">
-        <f>(B97+B98)/2</f>
-        <v>0</v>
+      <c r="F75" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1953,11 +1909,10 @@
         <v>500</v>
       </c>
       <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
         <v>3.113</v>
-      </c>
-      <c r="F76">
-        <f>(B98+B99)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1971,14 +1926,13 @@
         <v>500</v>
       </c>
       <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
         <v>3.121</v>
       </c>
-      <c r="E77" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77">
-        <f>(B99+B100)/2</f>
-        <v>0</v>
+      <c r="F77" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1992,10 +1946,13 @@
         <v>600</v>
       </c>
       <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>1.973</v>
       </c>
-      <c r="E78" t="s">
-        <v>40</v>
+      <c r="F78" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2009,11 +1966,10 @@
         <v>600</v>
       </c>
       <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
         <v>1.981</v>
-      </c>
-      <c r="F79">
-        <f>(B105+B106)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2027,14 +1983,13 @@
         <v>600</v>
       </c>
       <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
         <v>4.221</v>
       </c>
-      <c r="E80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80">
-        <f>(B106+B107)/2</f>
-        <v>0</v>
+      <c r="F80" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2048,14 +2003,13 @@
         <v>600</v>
       </c>
       <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
         <v>4.21</v>
       </c>
-      <c r="E81" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81">
-        <f>(B107+B108)/2</f>
-        <v>0</v>
+      <c r="F81" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2069,11 +2023,10 @@
         <v>600</v>
       </c>
       <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
         <v>2.412</v>
-      </c>
-      <c r="F82">
-        <f>(B108+B109)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2087,11 +2040,10 @@
         <v>600</v>
       </c>
       <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83">
         <v>1.017</v>
-      </c>
-      <c r="F83">
-        <f>(B109+B110)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2105,11 +2057,10 @@
         <v>600</v>
       </c>
       <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
         <v>0.203</v>
-      </c>
-      <c r="F84">
-        <f>(B110+B111)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2123,14 +2074,13 @@
         <v>600</v>
       </c>
       <c r="D85">
+        <v>17</v>
+      </c>
+      <c r="E85">
         <v>0.1</v>
       </c>
-      <c r="E85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85">
-        <f>(B111+B112)/2</f>
-        <v>0</v>
+      <c r="F85" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2144,11 +2094,10 @@
         <v>600</v>
       </c>
       <c r="D86">
+        <v>19</v>
+      </c>
+      <c r="E86">
         <v>0.201</v>
-      </c>
-      <c r="F86">
-        <f>(B112+B113)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2162,11 +2111,10 @@
         <v>600</v>
       </c>
       <c r="D87">
+        <v>21</v>
+      </c>
+      <c r="E87">
         <v>0.974</v>
-      </c>
-      <c r="F87">
-        <f>(B113+B114)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2180,11 +2128,10 @@
         <v>600</v>
       </c>
       <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
         <v>2.39</v>
-      </c>
-      <c r="F88">
-        <f>(B114+B115)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2198,14 +2145,13 @@
         <v>600</v>
       </c>
       <c r="D89">
+        <v>24</v>
+      </c>
+      <c r="E89">
         <v>3.596</v>
       </c>
-      <c r="E89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89">
-        <f>(B115+B116)/2</f>
-        <v>0</v>
+      <c r="F89" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2219,11 +2165,10 @@
         <v>600</v>
       </c>
       <c r="D90">
+        <v>25</v>
+      </c>
+      <c r="E90">
         <v>3.591</v>
-      </c>
-      <c r="F90">
-        <f>(B116+B117)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2237,11 +2182,10 @@
         <v>600</v>
       </c>
       <c r="D91">
+        <v>26</v>
+      </c>
+      <c r="E91">
         <v>2.416</v>
-      </c>
-      <c r="F91">
-        <f>(B117+B118)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2255,11 +2199,10 @@
         <v>600</v>
       </c>
       <c r="D92">
+        <v>30</v>
+      </c>
+      <c r="E92">
         <v>2.411</v>
-      </c>
-      <c r="F92">
-        <f>(B118+B119)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2273,14 +2216,13 @@
         <v>600</v>
       </c>
       <c r="D93">
+        <v>35</v>
+      </c>
+      <c r="E93">
         <v>2.397</v>
       </c>
-      <c r="E93" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93">
-        <f>(B119+B120)/2</f>
-        <v>0</v>
+      <c r="F93" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2294,10 +2236,13 @@
         <v>700</v>
       </c>
       <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>3.532</v>
       </c>
-      <c r="E94" t="s">
-        <v>43</v>
+      <c r="F94" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2311,11 +2256,10 @@
         <v>700</v>
       </c>
       <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
         <v>3.694</v>
-      </c>
-      <c r="F95">
-        <f>(B124+B125)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2329,14 +2273,13 @@
         <v>700</v>
       </c>
       <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
         <v>3.686</v>
       </c>
-      <c r="E96" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96">
-        <f>(B125+B126)/2</f>
-        <v>0</v>
+      <c r="F96" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2350,11 +2293,10 @@
         <v>700</v>
       </c>
       <c r="D97">
+        <v>7</v>
+      </c>
+      <c r="E97">
         <v>1.84</v>
-      </c>
-      <c r="F97">
-        <f>(B126+B127)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2368,11 +2310,10 @@
         <v>700</v>
       </c>
       <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="E98">
         <v>0.736</v>
-      </c>
-      <c r="F98">
-        <f>(B127+B128)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2386,11 +2327,10 @@
         <v>700</v>
       </c>
       <c r="D99">
+        <v>11</v>
+      </c>
+      <c r="E99">
         <v>-0.129</v>
-      </c>
-      <c r="F99">
-        <f>(B128+B129)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2404,14 +2344,13 @@
         <v>700</v>
       </c>
       <c r="D100">
+        <v>13</v>
+      </c>
+      <c r="E100">
         <v>-0.227</v>
       </c>
-      <c r="E100" t="s">
-        <v>32</v>
-      </c>
-      <c r="F100">
-        <f>(B129+B130)/2</f>
-        <v>0</v>
+      <c r="F100" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2425,11 +2364,10 @@
         <v>700</v>
       </c>
       <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
         <v>-0.125</v>
-      </c>
-      <c r="F101">
-        <f>(B130+B131)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2443,11 +2381,10 @@
         <v>700</v>
       </c>
       <c r="D102">
+        <v>17</v>
+      </c>
+      <c r="E102">
         <v>0.74</v>
-      </c>
-      <c r="F102">
-        <f>(B131+B132)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2461,11 +2398,10 @@
         <v>700</v>
       </c>
       <c r="D103">
+        <v>19</v>
+      </c>
+      <c r="E103">
         <v>1.814</v>
-      </c>
-      <c r="F103">
-        <f>(B132+B133)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2479,14 +2415,13 @@
         <v>700</v>
       </c>
       <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
         <v>2.743</v>
       </c>
-      <c r="E104" t="s">
-        <v>33</v>
-      </c>
-      <c r="F104">
-        <f>(B133+B134)/2</f>
-        <v>0</v>
+      <c r="F104" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2500,14 +2435,13 @@
         <v>700</v>
       </c>
       <c r="D105">
+        <v>22</v>
+      </c>
+      <c r="E105">
         <v>2.757</v>
       </c>
-      <c r="E105" t="s">
-        <v>44</v>
-      </c>
-      <c r="F105">
-        <f>(B134+B135)/2</f>
-        <v>0</v>
+      <c r="F105" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2521,10 +2455,13 @@
         <v>800</v>
       </c>
       <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>3.686</v>
       </c>
-      <c r="E106" t="s">
-        <v>36</v>
+      <c r="F106" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2538,14 +2475,13 @@
         <v>800</v>
       </c>
       <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
         <v>3.726</v>
       </c>
-      <c r="E107" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107">
-        <f>(B144+B145)/2</f>
-        <v>0</v>
+      <c r="F107" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2559,11 +2495,10 @@
         <v>800</v>
       </c>
       <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
         <v>2.029</v>
-      </c>
-      <c r="F108">
-        <f>(B145+B146)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2577,11 +2512,10 @@
         <v>800</v>
       </c>
       <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
         <v>0.93</v>
-      </c>
-      <c r="F109">
-        <f>(B146+B147)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2595,11 +2529,10 @@
         <v>800</v>
       </c>
       <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
         <v>0.08699999999999999</v>
-      </c>
-      <c r="F110">
-        <f>(B147+B148)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2613,14 +2546,13 @@
         <v>800</v>
       </c>
       <c r="D111">
+        <v>11.5</v>
+      </c>
+      <c r="E111">
         <v>-0.015</v>
       </c>
-      <c r="E111" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111">
-        <f>(B148+B149)/2</f>
-        <v>0</v>
+      <c r="F111" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2634,11 +2566,10 @@
         <v>800</v>
       </c>
       <c r="D112">
+        <v>14</v>
+      </c>
+      <c r="E112">
         <v>0.08599999999999999</v>
-      </c>
-      <c r="F112">
-        <f>(B149+B150)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2652,11 +2583,10 @@
         <v>800</v>
       </c>
       <c r="D113">
+        <v>16</v>
+      </c>
+      <c r="E113">
         <v>0.9409999999999999</v>
-      </c>
-      <c r="F113">
-        <f>(B150+B151)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2670,11 +2600,10 @@
         <v>800</v>
       </c>
       <c r="D114">
+        <v>18</v>
+      </c>
+      <c r="E114">
         <v>2.003</v>
-      </c>
-      <c r="F114">
-        <f>(B151+B152)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2688,14 +2617,13 @@
         <v>800</v>
       </c>
       <c r="D115">
+        <v>19</v>
+      </c>
+      <c r="E115">
         <v>3.034</v>
       </c>
-      <c r="E115" t="s">
-        <v>33</v>
-      </c>
-      <c r="F115">
-        <f>(B152+B153)/2</f>
-        <v>0</v>
+      <c r="F115" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2709,11 +2637,10 @@
         <v>800</v>
       </c>
       <c r="D116">
+        <v>25</v>
+      </c>
+      <c r="E116">
         <v>3.039</v>
-      </c>
-      <c r="F116">
-        <f>(B153+B154)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2727,14 +2654,13 @@
         <v>800</v>
       </c>
       <c r="D117">
+        <v>30</v>
+      </c>
+      <c r="E117">
         <v>3.056</v>
       </c>
-      <c r="E117" t="s">
-        <v>40</v>
-      </c>
-      <c r="F117">
-        <f>(B154+B155)/2</f>
-        <v>0</v>
+      <c r="F117" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2748,10 +2674,13 @@
         <v>900</v>
       </c>
       <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
         <v>3.142</v>
       </c>
-      <c r="E118" t="s">
-        <v>36</v>
+      <c r="F118" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2765,14 +2694,13 @@
         <v>900</v>
       </c>
       <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
         <v>3.214</v>
       </c>
-      <c r="E119" t="s">
-        <v>31</v>
-      </c>
-      <c r="F119">
-        <f>(B159+B160)/2</f>
-        <v>0</v>
+      <c r="F119" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2786,11 +2714,10 @@
         <v>900</v>
       </c>
       <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
         <v>2.247</v>
-      </c>
-      <c r="F120">
-        <f>(B160+B161)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2804,11 +2731,10 @@
         <v>900</v>
       </c>
       <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121">
         <v>1.443</v>
-      </c>
-      <c r="F121">
-        <f>(B161+B162)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2822,11 +2748,10 @@
         <v>900</v>
       </c>
       <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
         <v>0.72</v>
-      </c>
-      <c r="F122">
-        <f>(B162+B163)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2840,11 +2765,10 @@
         <v>900</v>
       </c>
       <c r="D123">
+        <v>12</v>
+      </c>
+      <c r="E123">
         <v>0.021</v>
-      </c>
-      <c r="F123">
-        <f>(B163+B164)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2858,14 +2782,13 @@
         <v>900</v>
       </c>
       <c r="D124">
+        <v>14</v>
+      </c>
+      <c r="E124">
         <v>-0.082</v>
       </c>
-      <c r="E124" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124">
-        <f>(B164+B165)/2</f>
-        <v>0</v>
+      <c r="F124" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2879,11 +2802,10 @@
         <v>900</v>
       </c>
       <c r="D125">
+        <v>16</v>
+      </c>
+      <c r="E125">
         <v>0.02</v>
-      </c>
-      <c r="F125">
-        <f>(B165+B166)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2897,11 +2819,10 @@
         <v>900</v>
       </c>
       <c r="D126">
+        <v>18</v>
+      </c>
+      <c r="E126">
         <v>0.598</v>
-      </c>
-      <c r="F126">
-        <f>(B166+B167)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2915,11 +2836,10 @@
         <v>900</v>
       </c>
       <c r="D127">
+        <v>20</v>
+      </c>
+      <c r="E127">
         <v>1.02</v>
-      </c>
-      <c r="F127">
-        <f>(B167+B168)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2933,11 +2853,10 @@
         <v>900</v>
       </c>
       <c r="D128">
+        <v>22</v>
+      </c>
+      <c r="E128">
         <v>1.842</v>
-      </c>
-      <c r="F128">
-        <f>(B168+B169)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2951,14 +2870,13 @@
         <v>900</v>
       </c>
       <c r="D129">
+        <v>23</v>
+      </c>
+      <c r="E129">
         <v>2.787</v>
       </c>
-      <c r="E129" t="s">
-        <v>33</v>
-      </c>
-      <c r="F129">
-        <f>(B169+B170)/2</f>
-        <v>0</v>
+      <c r="F129" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2972,11 +2890,10 @@
         <v>900</v>
       </c>
       <c r="D130">
+        <v>28</v>
+      </c>
+      <c r="E130">
         <v>2.799</v>
-      </c>
-      <c r="F130">
-        <f>(B170+B171)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2990,11 +2907,10 @@
         <v>900</v>
       </c>
       <c r="D131">
+        <v>33</v>
+      </c>
+      <c r="E131">
         <v>2.808</v>
-      </c>
-      <c r="F131">
-        <f>(B171+B172)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3008,14 +2924,13 @@
         <v>900</v>
       </c>
       <c r="D132">
+        <v>38</v>
+      </c>
+      <c r="E132">
         <v>2.813</v>
       </c>
-      <c r="E132" t="s">
-        <v>45</v>
-      </c>
-      <c r="F132">
-        <f>(B172+B173)/2</f>
-        <v>0</v>
+      <c r="F132" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3029,10 +2944,13 @@
         <v>1000</v>
       </c>
       <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
         <v>3.341</v>
       </c>
-      <c r="E133" t="s">
-        <v>41</v>
+      <c r="F133" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3046,11 +2964,10 @@
         <v>1000</v>
       </c>
       <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
         <v>3.346</v>
-      </c>
-      <c r="F134">
-        <f>(B178+B179)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3064,14 +2981,13 @@
         <v>1000</v>
       </c>
       <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135">
         <v>3.196</v>
       </c>
-      <c r="E135" t="s">
-        <v>31</v>
-      </c>
-      <c r="F135">
-        <f>(B179+B180)/2</f>
-        <v>0</v>
+      <c r="F135" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3085,11 +3001,10 @@
         <v>1000</v>
       </c>
       <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136">
         <v>2.235</v>
-      </c>
-      <c r="F136">
-        <f>(B180+B181)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3103,11 +3018,10 @@
         <v>1000</v>
       </c>
       <c r="D137">
+        <v>13</v>
+      </c>
+      <c r="E137">
         <v>1.342</v>
-      </c>
-      <c r="F137">
-        <f>(B181+B182)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3121,11 +3035,10 @@
         <v>1000</v>
       </c>
       <c r="D138">
+        <v>15</v>
+      </c>
+      <c r="E138">
         <v>0.636</v>
-      </c>
-      <c r="F138">
-        <f>(B182+B183)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3139,11 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="D139">
+        <v>17</v>
+      </c>
+      <c r="E139">
         <v>0.109</v>
-      </c>
-      <c r="F139">
-        <f>(B183+B184)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3157,14 +3069,13 @@
         <v>1000</v>
       </c>
       <c r="D140">
+        <v>18</v>
+      </c>
+      <c r="E140">
         <v>0.006</v>
       </c>
-      <c r="E140" t="s">
-        <v>32</v>
-      </c>
-      <c r="F140">
-        <f>(B184+B185)/2</f>
-        <v>0</v>
+      <c r="F140" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3178,11 +3089,10 @@
         <v>1000</v>
       </c>
       <c r="D141">
+        <v>19</v>
+      </c>
+      <c r="E141">
         <v>0.107</v>
-      </c>
-      <c r="F141">
-        <f>(B185+B186)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3196,11 +3106,10 @@
         <v>1000</v>
       </c>
       <c r="D142">
+        <v>21</v>
+      </c>
+      <c r="E142">
         <v>0.606</v>
-      </c>
-      <c r="F142">
-        <f>(B186+B187)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,11 +3123,10 @@
         <v>1000</v>
       </c>
       <c r="D143">
+        <v>23</v>
+      </c>
+      <c r="E143">
         <v>1.331</v>
-      </c>
-      <c r="F143">
-        <f>(B187+B188)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3232,11 +3140,10 @@
         <v>1000</v>
       </c>
       <c r="D144">
+        <v>25</v>
+      </c>
+      <c r="E144">
         <v>2.21</v>
-      </c>
-      <c r="F144">
-        <f>(B188+B189)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3250,14 +3157,13 @@
         <v>1000</v>
       </c>
       <c r="D145">
+        <v>26</v>
+      </c>
+      <c r="E145">
         <v>3.097</v>
       </c>
-      <c r="E145" t="s">
-        <v>33</v>
-      </c>
-      <c r="F145">
-        <f>(B189+B190)/2</f>
-        <v>0</v>
+      <c r="F145" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3271,14 +3177,13 @@
         <v>1000</v>
       </c>
       <c r="D146">
+        <v>30</v>
+      </c>
+      <c r="E146">
         <v>3.104</v>
       </c>
-      <c r="E146" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146">
-        <f>(B190+B191)/2</f>
-        <v>0</v>
+      <c r="F146" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3292,10 +3197,13 @@
         <v>1100</v>
       </c>
       <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
         <v>2.397</v>
       </c>
-      <c r="E147" t="s">
-        <v>36</v>
+      <c r="F147" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3309,14 +3217,13 @@
         <v>1100</v>
       </c>
       <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
         <v>2.39</v>
       </c>
-      <c r="E148" t="s">
-        <v>31</v>
-      </c>
-      <c r="F148">
-        <f>(B197+B198)/2</f>
-        <v>0</v>
+      <c r="F148" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3330,11 +3237,10 @@
         <v>1100</v>
       </c>
       <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
         <v>1.351</v>
-      </c>
-      <c r="F149">
-        <f>(B198+B199)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3348,11 +3254,10 @@
         <v>1100</v>
       </c>
       <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
         <v>0.526</v>
-      </c>
-      <c r="F150">
-        <f>(B199+B200)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3366,11 +3271,10 @@
         <v>1100</v>
       </c>
       <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
         <v>-0.08</v>
-      </c>
-      <c r="F151">
-        <f>(B200+B201)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3384,14 +3288,13 @@
         <v>1100</v>
       </c>
       <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152">
         <v>-0.184</v>
       </c>
-      <c r="E152" t="s">
-        <v>32</v>
-      </c>
-      <c r="F152">
-        <f>(B201+B202)/2</f>
-        <v>0</v>
+      <c r="F152" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3405,11 +3308,10 @@
         <v>1100</v>
       </c>
       <c r="D153">
+        <v>11</v>
+      </c>
+      <c r="E153">
         <v>-0.082</v>
-      </c>
-      <c r="F153">
-        <f>(B202+B203)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3423,11 +3325,10 @@
         <v>1100</v>
       </c>
       <c r="D154">
+        <v>13</v>
+      </c>
+      <c r="E154">
         <v>0.517</v>
-      </c>
-      <c r="F154">
-        <f>(B203+B204)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3441,11 +3342,10 @@
         <v>1100</v>
       </c>
       <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155">
         <v>1.351</v>
-      </c>
-      <c r="F155">
-        <f>(B204+B205)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3459,14 +3359,13 @@
         <v>1100</v>
       </c>
       <c r="D156">
+        <v>16</v>
+      </c>
+      <c r="E156">
         <v>3.195</v>
       </c>
-      <c r="E156" t="s">
-        <v>33</v>
-      </c>
-      <c r="F156">
-        <f>(B205+B206)/2</f>
-        <v>0</v>
+      <c r="F156" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3480,14 +3379,13 @@
         <v>1100</v>
       </c>
       <c r="D157">
+        <v>20</v>
+      </c>
+      <c r="E157">
         <v>3.2</v>
       </c>
-      <c r="E157" t="s">
-        <v>41</v>
-      </c>
-      <c r="F157">
-        <f>(B206+B207)/2</f>
-        <v>0</v>
+      <c r="F157" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3501,14 +3399,13 @@
         <v>1100</v>
       </c>
       <c r="D158">
+        <v>21</v>
+      </c>
+      <c r="E158">
         <v>3.136</v>
       </c>
-      <c r="E158" t="s">
-        <v>36</v>
-      </c>
-      <c r="F158">
-        <f>(B207+B208)/2</f>
-        <v>0</v>
+      <c r="F158" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3522,10 +3419,13 @@
         <v>1220</v>
       </c>
       <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
         <v>3.583</v>
       </c>
-      <c r="E159" t="s">
-        <v>36</v>
+      <c r="F159" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3539,14 +3439,13 @@
         <v>1220</v>
       </c>
       <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
         <v>3.598</v>
       </c>
-      <c r="E160" t="s">
-        <v>46</v>
-      </c>
-      <c r="F160">
-        <f>(B216+B217)/2</f>
-        <v>0</v>
+      <c r="F160" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3560,14 +3459,13 @@
         <v>1220</v>
       </c>
       <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161">
         <v>3.555</v>
       </c>
-      <c r="E161" t="s">
-        <v>31</v>
-      </c>
-      <c r="F161">
-        <f>(B217+B218)/2</f>
-        <v>0</v>
+      <c r="F161" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3581,11 +3479,10 @@
         <v>1220</v>
       </c>
       <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162">
         <v>1.782</v>
-      </c>
-      <c r="F162">
-        <f>(B218+B219)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3599,11 +3496,10 @@
         <v>1220</v>
       </c>
       <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163">
         <v>0.533</v>
-      </c>
-      <c r="F163">
-        <f>(B219+B220)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3617,11 +3513,10 @@
         <v>1220</v>
       </c>
       <c r="D164">
+        <v>11</v>
+      </c>
+      <c r="E164">
         <v>-0.121</v>
-      </c>
-      <c r="F164">
-        <f>(B220+B221)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3635,14 +3530,13 @@
         <v>1220</v>
       </c>
       <c r="D165">
+        <v>13</v>
+      </c>
+      <c r="E165">
         <v>-0.223</v>
       </c>
-      <c r="E165" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165">
-        <f>(B221+B222)/2</f>
-        <v>0</v>
+      <c r="F165" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3656,11 +3550,10 @@
         <v>1220</v>
       </c>
       <c r="D166">
+        <v>15</v>
+      </c>
+      <c r="E166">
         <v>-0.122</v>
-      </c>
-      <c r="F166">
-        <f>(B222+B223)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3674,11 +3567,10 @@
         <v>1220</v>
       </c>
       <c r="D167">
+        <v>17</v>
+      </c>
+      <c r="E167">
         <v>0.5659999999999999</v>
-      </c>
-      <c r="F167">
-        <f>(B223+B224)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3692,11 +3584,10 @@
         <v>1220</v>
       </c>
       <c r="D168">
+        <v>19</v>
+      </c>
+      <c r="E168">
         <v>1.753</v>
-      </c>
-      <c r="F168">
-        <f>(B224+B225)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3710,14 +3601,13 @@
         <v>1220</v>
       </c>
       <c r="D169">
+        <v>20</v>
+      </c>
+      <c r="E169">
         <v>3.477</v>
       </c>
-      <c r="E169" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169">
-        <f>(B225+B226)/2</f>
-        <v>0</v>
+      <c r="F169" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3731,14 +3621,13 @@
         <v>1220</v>
       </c>
       <c r="D170">
+        <v>24</v>
+      </c>
+      <c r="E170">
         <v>3.464</v>
       </c>
-      <c r="E170" t="s">
-        <v>41</v>
-      </c>
-      <c r="F170">
-        <f>(B226+B227)/2</f>
-        <v>0</v>
+      <c r="F170" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3752,11 +3641,10 @@
         <v>1220</v>
       </c>
       <c r="D171">
+        <v>25</v>
+      </c>
+      <c r="E171">
         <v>2.484</v>
-      </c>
-      <c r="F171">
-        <f>(B227+B228)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3770,11 +3658,10 @@
         <v>1220</v>
       </c>
       <c r="D172">
+        <v>30</v>
+      </c>
+      <c r="E172">
         <v>2.47</v>
-      </c>
-      <c r="F172">
-        <f>(B228+B229)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3788,14 +3675,13 @@
         <v>1220</v>
       </c>
       <c r="D173">
+        <v>35</v>
+      </c>
+      <c r="E173">
         <v>2.455</v>
       </c>
-      <c r="E173" t="s">
-        <v>40</v>
-      </c>
-      <c r="F173">
-        <f>(B229+B230)/2</f>
-        <v>0</v>
+      <c r="F173" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3809,10 +3695,13 @@
         <v>1320</v>
       </c>
       <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
         <v>2.609</v>
       </c>
-      <c r="E174" t="s">
-        <v>36</v>
+      <c r="F174" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3826,14 +3715,13 @@
         <v>1320</v>
       </c>
       <c r="D175">
+        <v>4</v>
+      </c>
+      <c r="E175">
         <v>2.596</v>
       </c>
-      <c r="E175" t="s">
-        <v>31</v>
-      </c>
-      <c r="F175">
-        <f>(B234+B235)/2</f>
-        <v>0</v>
+      <c r="F175" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3847,11 +3735,10 @@
         <v>1320</v>
       </c>
       <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
         <v>1.417</v>
-      </c>
-      <c r="F176">
-        <f>(B235+B236)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3865,11 +3752,10 @@
         <v>1320</v>
       </c>
       <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177">
         <v>0.515</v>
-      </c>
-      <c r="F177">
-        <f>(B236+B237)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3883,11 +3769,10 @@
         <v>1320</v>
       </c>
       <c r="D178">
+        <v>9</v>
+      </c>
+      <c r="E178">
         <v>-0.133</v>
-      </c>
-      <c r="F178">
-        <f>(B237+B238)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3901,14 +3786,13 @@
         <v>1320</v>
       </c>
       <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
         <v>-0.235</v>
       </c>
-      <c r="E179" t="s">
-        <v>32</v>
-      </c>
-      <c r="F179">
-        <f>(B238+B239)/2</f>
-        <v>0</v>
+      <c r="F179" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3922,11 +3806,10 @@
         <v>1320</v>
       </c>
       <c r="D180">
+        <v>11</v>
+      </c>
+      <c r="E180">
         <v>-0.134</v>
-      </c>
-      <c r="F180">
-        <f>(B239+B240)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3940,11 +3823,10 @@
         <v>1320</v>
       </c>
       <c r="D181">
+        <v>13</v>
+      </c>
+      <c r="E181">
         <v>0.473</v>
-      </c>
-      <c r="F181">
-        <f>(B240+B241)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3958,11 +3840,10 @@
         <v>1320</v>
       </c>
       <c r="D182">
+        <v>15</v>
+      </c>
+      <c r="E182">
         <v>1.411</v>
-      </c>
-      <c r="F182">
-        <f>(B241+B242)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3976,14 +3857,13 @@
         <v>1320</v>
       </c>
       <c r="D183">
+        <v>16</v>
+      </c>
+      <c r="E183">
         <v>2.704</v>
       </c>
-      <c r="E183" t="s">
-        <v>33</v>
-      </c>
-      <c r="F183">
-        <f>(B242+B243)/2</f>
-        <v>0</v>
+      <c r="F183" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3997,14 +3877,13 @@
         <v>1320</v>
       </c>
       <c r="D184">
+        <v>17</v>
+      </c>
+      <c r="E184">
         <v>2.716</v>
       </c>
-      <c r="E184" t="s">
-        <v>36</v>
-      </c>
-      <c r="F184">
-        <f>(B243+B244)/2</f>
-        <v>0</v>
+      <c r="F184" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4018,11 +3897,10 @@
         <v>1320</v>
       </c>
       <c r="D185">
+        <v>20</v>
+      </c>
+      <c r="E185">
         <v>2.716</v>
-      </c>
-      <c r="F185">
-        <f>(B244+B245)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4036,10 +3914,13 @@
         <v>1420</v>
       </c>
       <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
         <v>3.055</v>
       </c>
-      <c r="E186" t="s">
-        <v>36</v>
+      <c r="F186" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4053,14 +3934,13 @@
         <v>1420</v>
       </c>
       <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
         <v>3.066</v>
       </c>
-      <c r="E187" t="s">
-        <v>47</v>
-      </c>
-      <c r="F187">
-        <f>(B250+B251)/2</f>
-        <v>0</v>
+      <c r="F187" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4074,14 +3954,13 @@
         <v>1420</v>
       </c>
       <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
         <v>3.044</v>
       </c>
-      <c r="E188" t="s">
-        <v>31</v>
-      </c>
-      <c r="F188">
-        <f>(B251+B252)/2</f>
-        <v>0</v>
+      <c r="F188" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4095,11 +3974,10 @@
         <v>1420</v>
       </c>
       <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189">
         <v>1.812</v>
-      </c>
-      <c r="F189">
-        <f>(B252+B253)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4113,11 +3991,10 @@
         <v>1420</v>
       </c>
       <c r="D190">
+        <v>8</v>
+      </c>
+      <c r="E190">
         <v>1.017</v>
-      </c>
-      <c r="F190">
-        <f>(B253+B254)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4131,11 +4008,10 @@
         <v>1420</v>
       </c>
       <c r="D191">
+        <v>10</v>
+      </c>
+      <c r="E191">
         <v>0.513</v>
-      </c>
-      <c r="F191">
-        <f>(B254+B255)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4149,11 +4025,10 @@
         <v>1420</v>
       </c>
       <c r="D192">
+        <v>12</v>
+      </c>
+      <c r="E192">
         <v>0.093</v>
-      </c>
-      <c r="F192">
-        <f>(B255+B256)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4167,14 +4042,13 @@
         <v>1420</v>
       </c>
       <c r="D193">
+        <v>13</v>
+      </c>
+      <c r="E193">
         <v>-0.006</v>
       </c>
-      <c r="E193" t="s">
-        <v>32</v>
-      </c>
-      <c r="F193">
-        <f>(B256+B257)/2</f>
-        <v>0</v>
+      <c r="F193" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4188,11 +4062,10 @@
         <v>1420</v>
       </c>
       <c r="D194">
+        <v>14</v>
+      </c>
+      <c r="E194">
         <v>0.097</v>
-      </c>
-      <c r="F194">
-        <f>(B257+B258)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4206,11 +4079,10 @@
         <v>1420</v>
       </c>
       <c r="D195">
+        <v>16</v>
+      </c>
+      <c r="E195">
         <v>0.494</v>
-      </c>
-      <c r="F195">
-        <f>(B258+B259)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4224,11 +4096,10 @@
         <v>1420</v>
       </c>
       <c r="D196">
+        <v>18</v>
+      </c>
+      <c r="E196">
         <v>1.01</v>
-      </c>
-      <c r="F196">
-        <f>(B259+B260)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4242,11 +4113,10 @@
         <v>1420</v>
       </c>
       <c r="D197">
+        <v>20</v>
+      </c>
+      <c r="E197">
         <v>1.806</v>
-      </c>
-      <c r="F197">
-        <f>(B260+B261)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4260,14 +4130,13 @@
         <v>1420</v>
       </c>
       <c r="D198">
+        <v>21</v>
+      </c>
+      <c r="E198">
         <v>3.498</v>
       </c>
-      <c r="E198" t="s">
-        <v>33</v>
-      </c>
-      <c r="F198">
-        <f>(B261+B262)/2</f>
-        <v>0</v>
+      <c r="F198" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4281,14 +4150,13 @@
         <v>1420</v>
       </c>
       <c r="D199">
+        <v>25</v>
+      </c>
+      <c r="E199">
         <v>3.507</v>
       </c>
-      <c r="E199" t="s">
-        <v>41</v>
-      </c>
-      <c r="F199">
-        <f>(B262+B263)/2</f>
-        <v>0</v>
+      <c r="F199" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4302,11 +4170,10 @@
         <v>1420</v>
       </c>
       <c r="D200">
+        <v>28</v>
+      </c>
+      <c r="E200">
         <v>1.961</v>
-      </c>
-      <c r="F200">
-        <f>(B263+B264)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4320,14 +4187,13 @@
         <v>1420</v>
       </c>
       <c r="D201">
+        <v>33</v>
+      </c>
+      <c r="E201">
         <v>1.953</v>
       </c>
-      <c r="E201" t="s">
-        <v>48</v>
-      </c>
-      <c r="F201">
-        <f>(B264+B265)/2</f>
-        <v>0</v>
+      <c r="F201" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4341,10 +4207,13 @@
         <v>1520</v>
       </c>
       <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
         <v>3.026</v>
       </c>
-      <c r="E202" t="s">
-        <v>36</v>
+      <c r="F202" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4358,14 +4227,13 @@
         <v>1520</v>
       </c>
       <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203">
         <v>3.012</v>
       </c>
-      <c r="E203" t="s">
-        <v>31</v>
-      </c>
-      <c r="F203">
-        <f>(B269+B270)/2</f>
-        <v>0</v>
+      <c r="F203" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4379,11 +4247,10 @@
         <v>1520</v>
       </c>
       <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204">
         <v>1.933</v>
-      </c>
-      <c r="F204">
-        <f>(B270+B271)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4397,11 +4264,10 @@
         <v>1520</v>
       </c>
       <c r="D205">
+        <v>6</v>
+      </c>
+      <c r="E205">
         <v>1.128</v>
-      </c>
-      <c r="F205">
-        <f>(B271+B272)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4415,11 +4281,10 @@
         <v>1520</v>
       </c>
       <c r="D206">
+        <v>8</v>
+      </c>
+      <c r="E206">
         <v>0.481</v>
-      </c>
-      <c r="F206">
-        <f>(B272+B273)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4433,11 +4298,10 @@
         <v>1520</v>
       </c>
       <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207">
         <v>0.003</v>
-      </c>
-      <c r="F207">
-        <f>(B273+B274)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4451,14 +4315,13 @@
         <v>1520</v>
       </c>
       <c r="D208">
+        <v>12</v>
+      </c>
+      <c r="E208">
         <v>-0.099</v>
       </c>
-      <c r="E208" t="s">
-        <v>32</v>
-      </c>
-      <c r="F208">
-        <f>(B274+B275)/2</f>
-        <v>0</v>
+      <c r="F208" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4472,11 +4335,10 @@
         <v>1520</v>
       </c>
       <c r="D209">
+        <v>14</v>
+      </c>
+      <c r="E209">
         <v>0.002</v>
-      </c>
-      <c r="F209">
-        <f>(B275+B276)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4490,11 +4352,10 @@
         <v>1520</v>
       </c>
       <c r="D210">
+        <v>16</v>
+      </c>
+      <c r="E210">
         <v>0.474</v>
-      </c>
-      <c r="F210">
-        <f>(B276+B277)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4508,11 +4369,10 @@
         <v>1520</v>
       </c>
       <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211">
         <v>1.082</v>
-      </c>
-      <c r="F211">
-        <f>(B277+B278)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4526,11 +4386,10 @@
         <v>1520</v>
       </c>
       <c r="D212">
+        <v>20</v>
+      </c>
+      <c r="E212">
         <v>2.131</v>
-      </c>
-      <c r="F212">
-        <f>(B278+B279)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4544,14 +4403,13 @@
         <v>1520</v>
       </c>
       <c r="D213">
+        <v>21</v>
+      </c>
+      <c r="E213">
         <v>3.607</v>
       </c>
-      <c r="E213" t="s">
-        <v>33</v>
-      </c>
-      <c r="F213">
-        <f>(B279+B280)/2</f>
-        <v>0</v>
+      <c r="F213" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4565,14 +4423,13 @@
         <v>1520</v>
       </c>
       <c r="D214">
+        <v>25</v>
+      </c>
+      <c r="E214">
         <v>3.602</v>
       </c>
-      <c r="E214" t="s">
-        <v>41</v>
-      </c>
-      <c r="F214">
-        <f>(B280+B281)/2</f>
-        <v>0</v>
+      <c r="F214" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4586,14 +4443,13 @@
         <v>1520</v>
       </c>
       <c r="D215">
+        <v>28</v>
+      </c>
+      <c r="E215">
         <v>3.589</v>
       </c>
-      <c r="E215" t="s">
-        <v>36</v>
-      </c>
-      <c r="F215">
-        <f>(B281+B282)/2</f>
-        <v>0</v>
+      <c r="F215" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4607,10 +4463,13 @@
         <v>1625</v>
       </c>
       <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
         <v>3.118</v>
       </c>
-      <c r="E216" t="s">
-        <v>39</v>
+      <c r="F216" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4624,14 +4483,13 @@
         <v>1625</v>
       </c>
       <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
         <v>3.113</v>
       </c>
-      <c r="E217" t="s">
-        <v>31</v>
-      </c>
-      <c r="F217">
-        <f>(B288+B289)/2</f>
-        <v>0</v>
+      <c r="F217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4645,11 +4503,10 @@
         <v>1625</v>
       </c>
       <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
         <v>1.946</v>
-      </c>
-      <c r="F218">
-        <f>(B289+B290)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4663,11 +4520,10 @@
         <v>1625</v>
       </c>
       <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
         <v>1.133</v>
-      </c>
-      <c r="F219">
-        <f>(B290+B291)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4681,11 +4537,10 @@
         <v>1625</v>
       </c>
       <c r="D220">
+        <v>7</v>
+      </c>
+      <c r="E220">
         <v>0.538</v>
-      </c>
-      <c r="F220">
-        <f>(B291+B292)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4699,11 +4554,10 @@
         <v>1625</v>
       </c>
       <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221">
         <v>0.138</v>
-      </c>
-      <c r="F221">
-        <f>(B292+B293)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4717,14 +4571,13 @@
         <v>1625</v>
       </c>
       <c r="D222">
+        <v>11</v>
+      </c>
+      <c r="E222">
         <v>0.037</v>
       </c>
-      <c r="E222" t="s">
-        <v>32</v>
-      </c>
-      <c r="F222">
-        <f>(B293+B294)/2</f>
-        <v>0</v>
+      <c r="F222" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4738,11 +4591,10 @@
         <v>1625</v>
       </c>
       <c r="D223">
+        <v>13</v>
+      </c>
+      <c r="E223">
         <v>0.139</v>
-      </c>
-      <c r="F223">
-        <f>(B294+B295)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4756,11 +4608,10 @@
         <v>1625</v>
       </c>
       <c r="D224">
+        <v>15</v>
+      </c>
+      <c r="E224">
         <v>0.543</v>
-      </c>
-      <c r="F224">
-        <f>(B295+B296)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4774,11 +4625,10 @@
         <v>1625</v>
       </c>
       <c r="D225">
+        <v>17</v>
+      </c>
+      <c r="E225">
         <v>1.151</v>
-      </c>
-      <c r="F225">
-        <f>(B296+B297)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4792,11 +4642,10 @@
         <v>1625</v>
       </c>
       <c r="D226">
+        <v>19</v>
+      </c>
+      <c r="E226">
         <v>1.919</v>
-      </c>
-      <c r="F226">
-        <f>(B297+B298)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4810,14 +4659,13 @@
         <v>1625</v>
       </c>
       <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227">
         <v>3.008</v>
       </c>
-      <c r="E227" t="s">
-        <v>33</v>
-      </c>
-      <c r="F227">
-        <f>(B298+B299)/2</f>
-        <v>0</v>
+      <c r="F227" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4831,11 +4679,10 @@
         <v>1625</v>
       </c>
       <c r="D228">
+        <v>21</v>
+      </c>
+      <c r="E228">
         <v>3.016</v>
-      </c>
-      <c r="F228">
-        <f>(B299+B300)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4849,11 +4696,10 @@
         <v>1625</v>
       </c>
       <c r="D229">
+        <v>22</v>
+      </c>
+      <c r="E229">
         <v>3.792</v>
-      </c>
-      <c r="F229">
-        <f>(B300+B301)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4867,14 +4713,13 @@
         <v>1625</v>
       </c>
       <c r="D230">
+        <v>25</v>
+      </c>
+      <c r="E230">
         <v>3.787</v>
       </c>
-      <c r="E230" t="s">
-        <v>41</v>
-      </c>
-      <c r="F230">
-        <f>(B301+B302)/2</f>
-        <v>0</v>
+      <c r="F230" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4888,14 +4733,13 @@
         <v>1625</v>
       </c>
       <c r="D231">
+        <v>26</v>
+      </c>
+      <c r="E231">
         <v>3.78</v>
       </c>
-      <c r="E231" t="s">
-        <v>44</v>
-      </c>
-      <c r="F231">
-        <f>(B302+B303)/2</f>
-        <v>0</v>
+      <c r="F231" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4909,10 +4753,13 @@
         <v>1725</v>
       </c>
       <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
         <v>2.529</v>
       </c>
-      <c r="E232" t="s">
-        <v>48</v>
+      <c r="F232" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4926,11 +4773,10 @@
         <v>1725</v>
       </c>
       <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
         <v>2.542</v>
-      </c>
-      <c r="F233">
-        <f>(B307+B308)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -4944,14 +4790,13 @@
         <v>1725</v>
       </c>
       <c r="D234">
+        <v>6</v>
+      </c>
+      <c r="E234">
         <v>3.535</v>
       </c>
-      <c r="E234" t="s">
-        <v>41</v>
-      </c>
-      <c r="F234">
-        <f>(B308+B309)/2</f>
-        <v>0</v>
+      <c r="F234" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4965,14 +4810,13 @@
         <v>1725</v>
       </c>
       <c r="D235">
+        <v>10</v>
+      </c>
+      <c r="E235">
         <v>3.53</v>
       </c>
-      <c r="E235" t="s">
-        <v>31</v>
-      </c>
-      <c r="F235">
-        <f>(B309+B310)/2</f>
-        <v>0</v>
+      <c r="F235" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4986,11 +4830,10 @@
         <v>1725</v>
       </c>
       <c r="D236">
+        <v>11</v>
+      </c>
+      <c r="E236">
         <v>2.406</v>
-      </c>
-      <c r="F236">
-        <f>(B310+B311)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5004,11 +4847,10 @@
         <v>1725</v>
       </c>
       <c r="D237">
+        <v>12</v>
+      </c>
+      <c r="E237">
         <v>1.45</v>
-      </c>
-      <c r="F237">
-        <f>(B311+B312)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5022,11 +4864,10 @@
         <v>1725</v>
       </c>
       <c r="D238">
+        <v>14</v>
+      </c>
+      <c r="E238">
         <v>0.781</v>
-      </c>
-      <c r="F238">
-        <f>(B312+B313)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5040,11 +4881,10 @@
         <v>1725</v>
       </c>
       <c r="D239">
+        <v>16</v>
+      </c>
+      <c r="E239">
         <v>0.296</v>
-      </c>
-      <c r="F239">
-        <f>(B313+B314)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5058,14 +4898,13 @@
         <v>1725</v>
       </c>
       <c r="D240">
+        <v>17.5</v>
+      </c>
+      <c r="E240">
         <v>0.194</v>
       </c>
-      <c r="E240" t="s">
-        <v>32</v>
-      </c>
-      <c r="F240">
-        <f>(B314+B315)/2</f>
-        <v>0</v>
+      <c r="F240" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5079,11 +4918,10 @@
         <v>1725</v>
       </c>
       <c r="D241">
+        <v>19</v>
+      </c>
+      <c r="E241">
         <v>0.295</v>
-      </c>
-      <c r="F241">
-        <f>(B315+B316)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5097,11 +4935,10 @@
         <v>1725</v>
       </c>
       <c r="D242">
+        <v>21</v>
+      </c>
+      <c r="E242">
         <v>0.799</v>
-      </c>
-      <c r="F242">
-        <f>(B316+B317)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5115,11 +4952,10 @@
         <v>1725</v>
       </c>
       <c r="D243">
+        <v>23</v>
+      </c>
+      <c r="E243">
         <v>1.463</v>
-      </c>
-      <c r="F243">
-        <f>(B317+B318)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5133,11 +4969,10 @@
         <v>1725</v>
       </c>
       <c r="D244">
+        <v>24</v>
+      </c>
+      <c r="E244">
         <v>2.345</v>
-      </c>
-      <c r="F244">
-        <f>(B318+B319)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5151,14 +4986,13 @@
         <v>1725</v>
       </c>
       <c r="D245">
+        <v>25</v>
+      </c>
+      <c r="E245">
         <v>3.339</v>
       </c>
-      <c r="E245" t="s">
-        <v>33</v>
-      </c>
-      <c r="F245">
-        <f>(B319+B320)/2</f>
-        <v>0</v>
+      <c r="F245" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5172,11 +5006,10 @@
         <v>1725</v>
       </c>
       <c r="D246">
+        <v>30</v>
+      </c>
+      <c r="E246">
         <v>3.346</v>
-      </c>
-      <c r="F246">
-        <f>(B320+B321)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5190,14 +5023,13 @@
         <v>1725</v>
       </c>
       <c r="D247">
+        <v>35</v>
+      </c>
+      <c r="E247">
         <v>3.354</v>
       </c>
-      <c r="E247" t="s">
-        <v>40</v>
-      </c>
-      <c r="F247">
-        <f>(B321+B322)/2</f>
-        <v>0</v>
+      <c r="F247" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5211,10 +5043,13 @@
         <v>1825</v>
       </c>
       <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
         <v>2.905</v>
       </c>
-      <c r="E248" t="s">
-        <v>35</v>
+      <c r="F248" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5228,11 +5063,10 @@
         <v>1825</v>
       </c>
       <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249">
         <v>2.914</v>
-      </c>
-      <c r="F249">
-        <f>(B326+B327)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5246,11 +5080,10 @@
         <v>1825</v>
       </c>
       <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="E250">
         <v>3.736</v>
-      </c>
-      <c r="F250">
-        <f>(B327+B328)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5264,14 +5097,13 @@
         <v>1825</v>
       </c>
       <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="E251">
         <v>3.727</v>
       </c>
-      <c r="E251" t="s">
-        <v>31</v>
-      </c>
-      <c r="F251">
-        <f>(B328+B329)/2</f>
-        <v>0</v>
+      <c r="F251" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5285,11 +5117,10 @@
         <v>1825</v>
       </c>
       <c r="D252">
+        <v>11</v>
+      </c>
+      <c r="E252">
         <v>2.164</v>
-      </c>
-      <c r="F252">
-        <f>(B329+B330)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5303,11 +5134,10 @@
         <v>1825</v>
       </c>
       <c r="D253">
+        <v>13</v>
+      </c>
+      <c r="E253">
         <v>0.963</v>
-      </c>
-      <c r="F253">
-        <f>(B330+B331)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5321,11 +5151,10 @@
         <v>1825</v>
       </c>
       <c r="D254">
+        <v>15</v>
+      </c>
+      <c r="E254">
         <v>0.234</v>
-      </c>
-      <c r="F254">
-        <f>(B331+B332)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5339,14 +5168,13 @@
         <v>1825</v>
       </c>
       <c r="D255">
+        <v>17</v>
+      </c>
+      <c r="E255">
         <v>0.132</v>
       </c>
-      <c r="E255" t="s">
-        <v>32</v>
-      </c>
-      <c r="F255">
-        <f>(B332+B333)/2</f>
-        <v>0</v>
+      <c r="F255" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5360,11 +5188,10 @@
         <v>1825</v>
       </c>
       <c r="D256">
+        <v>19</v>
+      </c>
+      <c r="E256">
         <v>0.235</v>
-      </c>
-      <c r="F256">
-        <f>(B333+B334)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5378,11 +5205,10 @@
         <v>1825</v>
       </c>
       <c r="D257">
+        <v>21</v>
+      </c>
+      <c r="E257">
         <v>0.9370000000000001</v>
-      </c>
-      <c r="F257">
-        <f>(B334+B335)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5396,11 +5222,10 @@
         <v>1825</v>
       </c>
       <c r="D258">
+        <v>23</v>
+      </c>
+      <c r="E258">
         <v>2.095</v>
-      </c>
-      <c r="F258">
-        <f>(B335+B336)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5414,14 +5239,13 @@
         <v>1825</v>
       </c>
       <c r="D259">
+        <v>24</v>
+      </c>
+      <c r="E259">
         <v>3.35</v>
       </c>
-      <c r="E259" t="s">
-        <v>33</v>
-      </c>
-      <c r="F259">
-        <f>(B336+B337)/2</f>
-        <v>0</v>
+      <c r="F259" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5435,14 +5259,13 @@
         <v>1825</v>
       </c>
       <c r="D260">
+        <v>25</v>
+      </c>
+      <c r="E260">
         <v>3.356</v>
       </c>
-      <c r="E260" t="s">
-        <v>36</v>
-      </c>
-      <c r="F260">
-        <f>(B337+B338)/2</f>
-        <v>0</v>
+      <c r="F260" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5456,11 +5279,10 @@
         <v>1825</v>
       </c>
       <c r="D261">
+        <v>27</v>
+      </c>
+      <c r="E261">
         <v>3.356</v>
-      </c>
-      <c r="F261">
-        <f>(B338+B339)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5474,10 +5296,13 @@
         <v>1925</v>
       </c>
       <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
         <v>3.627</v>
       </c>
-      <c r="E262" t="s">
-        <v>36</v>
+      <c r="F262" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5491,11 +5316,10 @@
         <v>1925</v>
       </c>
       <c r="D263">
+        <v>3</v>
+      </c>
+      <c r="E263">
         <v>3.853</v>
-      </c>
-      <c r="F263">
-        <f>(B342+B343)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5509,14 +5333,13 @@
         <v>1925</v>
       </c>
       <c r="D264">
+        <v>7</v>
+      </c>
+      <c r="E264">
         <v>3.828</v>
       </c>
-      <c r="E264" t="s">
-        <v>31</v>
-      </c>
-      <c r="F264">
-        <f>(B343+B344)/2</f>
-        <v>0</v>
+      <c r="F264" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5530,11 +5353,10 @@
         <v>1925</v>
       </c>
       <c r="D265">
+        <v>8</v>
+      </c>
+      <c r="E265">
         <v>1.808</v>
-      </c>
-      <c r="F265">
-        <f>(B344+B345)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5548,11 +5370,10 @@
         <v>1925</v>
       </c>
       <c r="D266">
+        <v>10</v>
+      </c>
+      <c r="E266">
         <v>0.8110000000000001</v>
-      </c>
-      <c r="F266">
-        <f>(B345+B346)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5566,11 +5387,10 @@
         <v>1925</v>
       </c>
       <c r="D267">
+        <v>12</v>
+      </c>
+      <c r="E267">
         <v>0.139</v>
-      </c>
-      <c r="F267">
-        <f>(B346+B347)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5584,14 +5404,13 @@
         <v>1925</v>
       </c>
       <c r="D268">
+        <v>13.5</v>
+      </c>
+      <c r="E268">
         <v>0.037</v>
       </c>
-      <c r="E268" t="s">
-        <v>32</v>
-      </c>
-      <c r="F268">
-        <f>(B347+B348)/2</f>
-        <v>0</v>
+      <c r="F268" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5605,11 +5424,10 @@
         <v>1925</v>
       </c>
       <c r="D269">
+        <v>15</v>
+      </c>
+      <c r="E269">
         <v>0.138</v>
-      </c>
-      <c r="F269">
-        <f>(B348+B349)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5623,11 +5441,10 @@
         <v>1925</v>
       </c>
       <c r="D270">
+        <v>17</v>
+      </c>
+      <c r="E270">
         <v>0.823</v>
-      </c>
-      <c r="F270">
-        <f>(B349+B350)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5641,11 +5458,10 @@
         <v>1925</v>
       </c>
       <c r="D271">
+        <v>19</v>
+      </c>
+      <c r="E271">
         <v>1.83</v>
-      </c>
-      <c r="F271">
-        <f>(B350+B351)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5659,14 +5475,13 @@
         <v>1925</v>
       </c>
       <c r="D272">
+        <v>20</v>
+      </c>
+      <c r="E272">
         <v>3.507</v>
       </c>
-      <c r="E272" t="s">
-        <v>33</v>
-      </c>
-      <c r="F272">
-        <f>(B351+B352)/2</f>
-        <v>0</v>
+      <c r="F272" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5680,11 +5495,10 @@
         <v>1925</v>
       </c>
       <c r="D273">
+        <v>25</v>
+      </c>
+      <c r="E273">
         <v>3.528</v>
-      </c>
-      <c r="F273">
-        <f>(B352+B353)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5698,11 +5512,10 @@
         <v>1925</v>
       </c>
       <c r="D274">
+        <v>30</v>
+      </c>
+      <c r="E274">
         <v>3.533</v>
-      </c>
-      <c r="F274">
-        <f>(B353+B354)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5716,14 +5529,13 @@
         <v>1925</v>
       </c>
       <c r="D275">
+        <v>35</v>
+      </c>
+      <c r="E275">
         <v>3.541</v>
       </c>
-      <c r="E275" t="s">
-        <v>40</v>
-      </c>
-      <c r="F275">
-        <f>(B354+B355)/2</f>
-        <v>0</v>
+      <c r="F275" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5737,10 +5549,13 @@
         <v>2025</v>
       </c>
       <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
         <v>3.732</v>
       </c>
-      <c r="E276" t="s">
-        <v>36</v>
+      <c r="F276" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5754,14 +5569,13 @@
         <v>2025</v>
       </c>
       <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277">
         <v>3.975</v>
       </c>
-      <c r="E277" t="s">
-        <v>31</v>
-      </c>
-      <c r="F277">
-        <f>(B359+B360)/2</f>
-        <v>0</v>
+      <c r="F277" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5775,11 +5589,10 @@
         <v>2025</v>
       </c>
       <c r="D278">
+        <v>5</v>
+      </c>
+      <c r="E278">
         <v>2.788</v>
-      </c>
-      <c r="F278">
-        <f>(B360+B361)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5793,11 +5606,10 @@
         <v>2025</v>
       </c>
       <c r="D279">
+        <v>7</v>
+      </c>
+      <c r="E279">
         <v>1.772</v>
-      </c>
-      <c r="F279">
-        <f>(B361+B362)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5811,11 +5623,10 @@
         <v>2025</v>
       </c>
       <c r="D280">
+        <v>9</v>
+      </c>
+      <c r="E280">
         <v>0.833</v>
-      </c>
-      <c r="F280">
-        <f>(B362+B363)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -5829,11 +5640,10 @@
         <v>2025</v>
       </c>
       <c r="D281">
+        <v>11</v>
+      </c>
+      <c r="E281">
         <v>0.254</v>
-      </c>
-      <c r="F281">
-        <f>(B363+B364)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -5847,14 +5657,13 @@
         <v>2025</v>
       </c>
       <c r="D282">
+        <v>12</v>
+      </c>
+      <c r="E282">
         <v>0.153</v>
       </c>
-      <c r="E282" t="s">
-        <v>32</v>
-      </c>
-      <c r="F282">
-        <f>(B364+B365)/2</f>
-        <v>0</v>
+      <c r="F282" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -5868,11 +5677,10 @@
         <v>2025</v>
       </c>
       <c r="D283">
+        <v>13</v>
+      </c>
+      <c r="E283">
         <v>0.256</v>
-      </c>
-      <c r="F283">
-        <f>(B365+B366)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -5886,11 +5694,10 @@
         <v>2025</v>
       </c>
       <c r="D284">
+        <v>15</v>
+      </c>
+      <c r="E284">
         <v>0.878</v>
-      </c>
-      <c r="F284">
-        <f>(B366+B367)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -5904,11 +5711,10 @@
         <v>2025</v>
       </c>
       <c r="D285">
+        <v>17</v>
+      </c>
+      <c r="E285">
         <v>1.789</v>
-      </c>
-      <c r="F285">
-        <f>(B367+B368)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -5922,11 +5728,10 @@
         <v>2025</v>
       </c>
       <c r="D286">
+        <v>19</v>
+      </c>
+      <c r="E286">
         <v>2.266</v>
-      </c>
-      <c r="F286">
-        <f>(B368+B369)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -5940,14 +5745,13 @@
         <v>2025</v>
       </c>
       <c r="D287">
+        <v>20</v>
+      </c>
+      <c r="E287">
         <v>2.632</v>
       </c>
-      <c r="E287" t="s">
-        <v>33</v>
-      </c>
-      <c r="F287">
-        <f>(B369+B370)/2</f>
-        <v>0</v>
+      <c r="F287" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -5961,14 +5765,13 @@
         <v>2025</v>
       </c>
       <c r="D288">
+        <v>24</v>
+      </c>
+      <c r="E288">
         <v>2.646</v>
       </c>
-      <c r="E288" t="s">
-        <v>36</v>
-      </c>
-      <c r="F288">
-        <f>(B370+B371)/2</f>
-        <v>0</v>
+      <c r="F288" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -5982,10 +5785,13 @@
         <v>2135</v>
       </c>
       <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
         <v>4.004</v>
       </c>
-      <c r="E289" t="s">
-        <v>36</v>
+      <c r="F289" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -5999,14 +5805,13 @@
         <v>2135</v>
       </c>
       <c r="D290">
+        <v>4</v>
+      </c>
+      <c r="E290">
         <v>3.999</v>
       </c>
-      <c r="E290" t="s">
-        <v>31</v>
-      </c>
-      <c r="F290">
-        <f>(B376+B377)/2</f>
-        <v>0</v>
+      <c r="F290" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6020,11 +5825,10 @@
         <v>2135</v>
       </c>
       <c r="D291">
+        <v>5</v>
+      </c>
+      <c r="E291">
         <v>2.798</v>
-      </c>
-      <c r="F291">
-        <f>(B377+B378)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6038,11 +5842,10 @@
         <v>2135</v>
       </c>
       <c r="D292">
+        <v>7</v>
+      </c>
+      <c r="E292">
         <v>1.749</v>
-      </c>
-      <c r="F292">
-        <f>(B378+B379)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6056,11 +5859,10 @@
         <v>2135</v>
       </c>
       <c r="D293">
+        <v>9</v>
+      </c>
+      <c r="E293">
         <v>0.794</v>
-      </c>
-      <c r="F293">
-        <f>(B379+B380)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6074,11 +5876,10 @@
         <v>2135</v>
       </c>
       <c r="D294">
+        <v>11</v>
+      </c>
+      <c r="E294">
         <v>0.001</v>
-      </c>
-      <c r="F294">
-        <f>(B380+B381)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6092,14 +5893,13 @@
         <v>2135</v>
       </c>
       <c r="D295">
+        <v>13</v>
+      </c>
+      <c r="E295">
         <v>-0.1</v>
       </c>
-      <c r="E295" t="s">
-        <v>32</v>
-      </c>
-      <c r="F295">
-        <f>(B381+B382)/2</f>
-        <v>0</v>
+      <c r="F295" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6113,11 +5913,10 @@
         <v>2135</v>
       </c>
       <c r="D296">
+        <v>15</v>
+      </c>
+      <c r="E296">
         <v>0.002</v>
-      </c>
-      <c r="F296">
-        <f>(B382+B383)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6131,11 +5930,10 @@
         <v>2135</v>
       </c>
       <c r="D297">
+        <v>17</v>
+      </c>
+      <c r="E297">
         <v>0.298</v>
-      </c>
-      <c r="F297">
-        <f>(B383+B384)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6149,11 +5947,10 @@
         <v>2135</v>
       </c>
       <c r="D298">
+        <v>19</v>
+      </c>
+      <c r="E298">
         <v>0.784</v>
-      </c>
-      <c r="F298">
-        <f>(B384+B385)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6167,11 +5964,10 @@
         <v>2135</v>
       </c>
       <c r="D299">
+        <v>21</v>
+      </c>
+      <c r="E299">
         <v>1.801</v>
-      </c>
-      <c r="F299">
-        <f>(B385+B386)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6185,14 +5981,13 @@
         <v>2135</v>
       </c>
       <c r="D300">
+        <v>22</v>
+      </c>
+      <c r="E300">
         <v>2.662</v>
       </c>
-      <c r="E300" t="s">
-        <v>33</v>
-      </c>
-      <c r="F300">
-        <f>(B386+B387)/2</f>
-        <v>0</v>
+      <c r="F300" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6206,11 +6001,10 @@
         <v>2135</v>
       </c>
       <c r="D301">
+        <v>27</v>
+      </c>
+      <c r="E301">
         <v>2.669</v>
-      </c>
-      <c r="F301">
-        <f>(B387+B388)/2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6224,14 +6018,13 @@
         <v>2135</v>
       </c>
       <c r="D302">
+        <v>32</v>
+      </c>
+      <c r="E302">
         <v>2.681</v>
       </c>
-      <c r="E302" t="s">
-        <v>35</v>
-      </c>
-      <c r="F302">
-        <f>(B388+B389)/2</f>
-        <v>0</v>
+      <c r="F302" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6242,13 +6035,16 @@
         <v>27</v>
       </c>
       <c r="C303">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D303">
-        <v>1.033</v>
-      </c>
-      <c r="E303" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>3.051</v>
+      </c>
+      <c r="F303" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6259,14 +6055,13 @@
         <v>27</v>
       </c>
       <c r="C304">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D304">
-        <v>1.019</v>
-      </c>
-      <c r="F304">
-        <f>(B411+B412)/2</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E304">
+        <v>3.067</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6277,17 +6072,16 @@
         <v>27</v>
       </c>
       <c r="C305">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D305">
-        <v>1.012</v>
-      </c>
-      <c r="E305" t="s">
-        <v>31</v>
-      </c>
-      <c r="F305">
-        <f>(B412+B413)/2</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E305">
+        <v>4.334</v>
+      </c>
+      <c r="F305" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6298,14 +6092,16 @@
         <v>27</v>
       </c>
       <c r="C306">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D306">
-        <v>0.612</v>
-      </c>
-      <c r="F306">
-        <f>(B413+B414)/2</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E306">
+        <v>4.327</v>
+      </c>
+      <c r="F306" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6316,14 +6112,13 @@
         <v>27</v>
       </c>
       <c r="C307">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D307">
-        <v>0.199</v>
-      </c>
-      <c r="F307">
-        <f>(B414+B415)/2</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E307">
+        <v>2.532</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6334,14 +6129,13 @@
         <v>27</v>
       </c>
       <c r="C308">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D308">
-        <v>-0.097</v>
-      </c>
-      <c r="F308">
-        <f>(B415+B416)/2</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E308">
+        <v>0.556</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6352,17 +6146,13 @@
         <v>27</v>
       </c>
       <c r="C309">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D309">
-        <v>-0.2</v>
-      </c>
-      <c r="E309" t="s">
-        <v>32</v>
-      </c>
-      <c r="F309">
-        <f>(B416+B417)/2</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E309">
+        <v>-0.374</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6373,14 +6163,16 @@
         <v>27</v>
       </c>
       <c r="C310">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D310">
-        <v>-0.098</v>
-      </c>
-      <c r="F310">
-        <f>(B417+B418)/2</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E310">
+        <v>-0.473</v>
+      </c>
+      <c r="F310" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6391,14 +6183,13 @@
         <v>27</v>
       </c>
       <c r="C311">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D311">
-        <v>0.207</v>
-      </c>
-      <c r="F311">
-        <f>(B418+B419)/2</f>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E311">
+        <v>-0.372</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6409,14 +6200,13 @@
         <v>27</v>
       </c>
       <c r="C312">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D312">
-        <v>0.603</v>
-      </c>
-      <c r="F312">
-        <f>(B419+B420)/2</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E312">
+        <v>0.394</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6427,17 +6217,13 @@
         <v>27</v>
       </c>
       <c r="C313">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D313">
-        <v>0.976</v>
-      </c>
-      <c r="E313" t="s">
-        <v>33</v>
-      </c>
-      <c r="F313">
-        <f>(B420+B421)/2</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E313">
+        <v>1.361</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6448,14 +6234,16 @@
         <v>27</v>
       </c>
       <c r="C314">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D314">
-        <v>0.972</v>
-      </c>
-      <c r="F314">
-        <f>(B421+B422)/2</f>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E314">
+        <v>2.543</v>
+      </c>
+      <c r="F314" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6466,17 +6254,13 @@
         <v>27</v>
       </c>
       <c r="C315">
-        <v>2340</v>
+        <v>2235</v>
       </c>
       <c r="D315">
-        <v>0.967</v>
-      </c>
-      <c r="E315" t="s">
-        <v>42</v>
-      </c>
-      <c r="F315">
-        <f>(B422+B423)/2</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="E315">
+        <v>2.552</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6484,16 +6268,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C316">
-        <v>2450</v>
+        <v>2235</v>
       </c>
       <c r="D316">
-        <v>0.854</v>
-      </c>
-      <c r="E316" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="E316">
+        <v>1.714</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6501,17 +6285,19 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C317">
-        <v>2450</v>
+        <v>2235</v>
       </c>
       <c r="D317">
-        <v>0.847</v>
-      </c>
-      <c r="F317">
-        <f>(B431+B432)/2</f>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E317">
+        <v>0.953</v>
+      </c>
+      <c r="F317" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6522,17 +6308,16 @@
         <v>28</v>
       </c>
       <c r="C318">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D318">
-        <v>0.838</v>
-      </c>
-      <c r="E318" t="s">
-        <v>31</v>
-      </c>
-      <c r="F318">
-        <f>(B432+B433)/2</f>
         <v>0</v>
+      </c>
+      <c r="E318">
+        <v>1.033</v>
+      </c>
+      <c r="F318" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6543,14 +6328,13 @@
         <v>28</v>
       </c>
       <c r="C319">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D319">
-        <v>0.463</v>
-      </c>
-      <c r="F319">
-        <f>(B433+B434)/2</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E319">
+        <v>1.019</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6561,14 +6345,16 @@
         <v>28</v>
       </c>
       <c r="C320">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D320">
-        <v>0.014</v>
-      </c>
-      <c r="F320">
-        <f>(B434+B435)/2</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E320">
+        <v>1.012</v>
+      </c>
+      <c r="F320" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6579,14 +6365,13 @@
         <v>28</v>
       </c>
       <c r="C321">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D321">
-        <v>-0.277</v>
-      </c>
-      <c r="F321">
-        <f>(B435+B436)/2</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>0.612</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6597,17 +6382,13 @@
         <v>28</v>
       </c>
       <c r="C322">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D322">
-        <v>-0.381</v>
-      </c>
-      <c r="E322" t="s">
-        <v>32</v>
-      </c>
-      <c r="F322">
-        <f>(B436+B437)/2</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E322">
+        <v>0.199</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6618,14 +6399,13 @@
         <v>28</v>
       </c>
       <c r="C323">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D323">
-        <v>-0.279</v>
-      </c>
-      <c r="F323">
-        <f>(B437+B438)/2</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E323">
+        <v>-0.097</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6636,14 +6416,16 @@
         <v>28</v>
       </c>
       <c r="C324">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D324">
-        <v>0.11</v>
-      </c>
-      <c r="F324">
-        <f>(B438+B439)/2</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E324">
+        <v>-0.2</v>
+      </c>
+      <c r="F324" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6654,14 +6436,13 @@
         <v>28</v>
       </c>
       <c r="C325">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D325">
-        <v>0.764</v>
-      </c>
-      <c r="F325">
-        <f>(B439+B440)/2</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E325">
+        <v>-0.098</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6672,17 +6453,13 @@
         <v>28</v>
       </c>
       <c r="C326">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D326">
-        <v>1.598</v>
-      </c>
-      <c r="E326" t="s">
-        <v>33</v>
-      </c>
-      <c r="F326">
-        <f>(B440+B441)/2</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E326">
+        <v>0.207</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6693,14 +6470,13 @@
         <v>28</v>
       </c>
       <c r="C327">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D327">
-        <v>1.61</v>
-      </c>
-      <c r="F327">
-        <f>(B441+B442)/2</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E327">
+        <v>0.603</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6711,17 +6487,16 @@
         <v>28</v>
       </c>
       <c r="C328">
-        <v>2450</v>
+        <v>2340</v>
       </c>
       <c r="D328">
-        <v>1.617</v>
-      </c>
-      <c r="E328" t="s">
-        <v>35</v>
-      </c>
-      <c r="F328">
-        <f>(B442+B443)/2</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E328">
+        <v>0.976</v>
+      </c>
+      <c r="F328" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -6729,16 +6504,16 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C329">
-        <v>2525</v>
+        <v>2340</v>
       </c>
       <c r="D329">
-        <v>1.305</v>
-      </c>
-      <c r="E329" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="E329">
+        <v>0.972</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -6746,17 +6521,19 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C330">
-        <v>2525</v>
+        <v>2340</v>
       </c>
       <c r="D330">
-        <v>1.294</v>
-      </c>
-      <c r="F330">
-        <f>(B447+B448)/2</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E330">
+        <v>0.967</v>
+      </c>
+      <c r="F330" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -6767,17 +6544,16 @@
         <v>29</v>
       </c>
       <c r="C331">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D331">
-        <v>2.774</v>
-      </c>
-      <c r="E331" t="s">
-        <v>46</v>
-      </c>
-      <c r="F331">
-        <f>(B448+B449)/2</f>
         <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0.854</v>
+      </c>
+      <c r="F331" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -6788,17 +6564,13 @@
         <v>29</v>
       </c>
       <c r="C332">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D332">
-        <v>2.769</v>
-      </c>
-      <c r="E332" t="s">
-        <v>31</v>
-      </c>
-      <c r="F332">
-        <f>(B449+B450)/2</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E332">
+        <v>0.847</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -6809,14 +6581,16 @@
         <v>29</v>
       </c>
       <c r="C333">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D333">
-        <v>1.863</v>
-      </c>
-      <c r="F333">
-        <f>(B450+B451)/2</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E333">
+        <v>0.838</v>
+      </c>
+      <c r="F333" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -6827,14 +6601,13 @@
         <v>29</v>
       </c>
       <c r="C334">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D334">
-        <v>1.095</v>
-      </c>
-      <c r="F334">
-        <f>(B451+B452)/2</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E334">
+        <v>0.463</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -6845,14 +6618,13 @@
         <v>29</v>
       </c>
       <c r="C335">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D335">
-        <v>0.555</v>
-      </c>
-      <c r="F335">
-        <f>(B452+B453)/2</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E335">
+        <v>0.014</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -6863,14 +6635,13 @@
         <v>29</v>
       </c>
       <c r="C336">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D336">
-        <v>0.16</v>
-      </c>
-      <c r="F336">
-        <f>(B453+B454)/2</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E336">
+        <v>-0.277</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -6881,17 +6652,16 @@
         <v>29</v>
       </c>
       <c r="C337">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D337">
-        <v>0.059</v>
-      </c>
-      <c r="E337" t="s">
-        <v>32</v>
-      </c>
-      <c r="F337">
-        <f>(B454+B455)/2</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E337">
+        <v>-0.381</v>
+      </c>
+      <c r="F337" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -6902,14 +6672,13 @@
         <v>29</v>
       </c>
       <c r="C338">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D338">
-        <v>0.161</v>
-      </c>
-      <c r="F338">
-        <f>(B455+B456)/2</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E338">
+        <v>-0.279</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -6920,14 +6689,13 @@
         <v>29</v>
       </c>
       <c r="C339">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D339">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="F339">
-        <f>(B456+B457)/2</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E339">
+        <v>0.11</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -6938,14 +6706,13 @@
         <v>29</v>
       </c>
       <c r="C340">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D340">
-        <v>1.058</v>
-      </c>
-      <c r="F340">
-        <f>(B457+B458)/2</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E340">
+        <v>0.764</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -6956,14 +6723,16 @@
         <v>29</v>
       </c>
       <c r="C341">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D341">
-        <v>1.965</v>
-      </c>
-      <c r="F341">
-        <f>(B458+B459)/2</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E341">
+        <v>1.598</v>
+      </c>
+      <c r="F341" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -6974,17 +6743,13 @@
         <v>29</v>
       </c>
       <c r="C342">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D342">
-        <v>3.594</v>
-      </c>
-      <c r="E342" t="s">
-        <v>33</v>
-      </c>
-      <c r="F342">
-        <f>(B459+B460)/2</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E342">
+        <v>1.61</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -6995,14 +6760,16 @@
         <v>29</v>
       </c>
       <c r="C343">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="D343">
-        <v>3.599</v>
-      </c>
-      <c r="F343">
-        <f>(B460+B461)/2</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E343">
+        <v>1.617</v>
+      </c>
+      <c r="F343" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7010,20 +6777,289 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C344">
         <v>2525</v>
       </c>
       <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>1.305</v>
+      </c>
+      <c r="F344" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>30</v>
+      </c>
+      <c r="C345">
+        <v>2525</v>
+      </c>
+      <c r="D345">
+        <v>7</v>
+      </c>
+      <c r="E345">
+        <v>1.294</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>30</v>
+      </c>
+      <c r="C346">
+        <v>2525</v>
+      </c>
+      <c r="D346">
+        <v>8</v>
+      </c>
+      <c r="E346">
+        <v>2.774</v>
+      </c>
+      <c r="F346" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>30</v>
+      </c>
+      <c r="C347">
+        <v>2525</v>
+      </c>
+      <c r="D347">
+        <v>10</v>
+      </c>
+      <c r="E347">
+        <v>2.769</v>
+      </c>
+      <c r="F347" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>30</v>
+      </c>
+      <c r="C348">
+        <v>2525</v>
+      </c>
+      <c r="D348">
+        <v>12</v>
+      </c>
+      <c r="E348">
+        <v>1.863</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>30</v>
+      </c>
+      <c r="C349">
+        <v>2525</v>
+      </c>
+      <c r="D349">
+        <v>14</v>
+      </c>
+      <c r="E349">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>30</v>
+      </c>
+      <c r="C350">
+        <v>2525</v>
+      </c>
+      <c r="D350">
+        <v>16</v>
+      </c>
+      <c r="E350">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>30</v>
+      </c>
+      <c r="C351">
+        <v>2525</v>
+      </c>
+      <c r="D351">
+        <v>18</v>
+      </c>
+      <c r="E351">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352">
+        <v>2525</v>
+      </c>
+      <c r="D352">
+        <v>20</v>
+      </c>
+      <c r="E352">
+        <v>0.059</v>
+      </c>
+      <c r="F352" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>30</v>
+      </c>
+      <c r="C353">
+        <v>2525</v>
+      </c>
+      <c r="D353">
+        <v>22</v>
+      </c>
+      <c r="E353">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354">
+        <v>2525</v>
+      </c>
+      <c r="D354">
+        <v>24</v>
+      </c>
+      <c r="E354">
+        <v>0.5620000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>30</v>
+      </c>
+      <c r="C355">
+        <v>2525</v>
+      </c>
+      <c r="D355">
+        <v>26</v>
+      </c>
+      <c r="E355">
+        <v>1.058</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356">
+        <v>2525</v>
+      </c>
+      <c r="D356">
+        <v>28</v>
+      </c>
+      <c r="E356">
+        <v>1.965</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357">
+        <v>2525</v>
+      </c>
+      <c r="D357">
+        <v>30</v>
+      </c>
+      <c r="E357">
+        <v>3.594</v>
+      </c>
+      <c r="F357" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358">
+        <v>2525</v>
+      </c>
+      <c r="D358">
+        <v>35</v>
+      </c>
+      <c r="E358">
+        <v>3.599</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359">
+        <v>2525</v>
+      </c>
+      <c r="D359">
+        <v>40</v>
+      </c>
+      <c r="E359">
         <v>3.604</v>
       </c>
-      <c r="E344" t="s">
-        <v>30</v>
-      </c>
-      <c r="F344">
-        <f>(B461+B462)/2</f>
-        <v>0</v>
+      <c r="F359" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
